--- a/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B49FACF-0330-4A80-9529-D45043013BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE39A22-93B1-4D53-BB65-0FD32EC06297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC23DA9F-DC09-4221-90C4-FC3E33A64ECB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E85F496-7EBC-44C0-B414-CF20EDD5F73F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,958 +76,958 @@
     <t>89,34%</t>
   </si>
   <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>19,24%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE9337-A3B1-4936-A8F3-EF745B8186AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC5AC-DDFA-4369-A384-E072FECB81F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,13 +2213,13 @@
         <v>1541901</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2234,13 @@
         <v>238994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -2249,13 +2249,13 @@
         <v>198082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>448</v>
@@ -2264,13 +2264,13 @@
         <v>437076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2338,13 @@
         <v>2495953</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2683</v>
@@ -2353,13 +2353,13 @@
         <v>2756435</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>5130</v>
@@ -2368,13 +2368,13 @@
         <v>5252388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2389,13 @@
         <v>777718</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>612</v>
@@ -2404,13 +2404,13 @@
         <v>620727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>1376</v>
@@ -2425,7 +2425,7 @@
         <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A443D39B-E0C3-4904-B9E5-FE11235F98BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80192039-20F1-4426-A539-5EE589F4AD94}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3428,7 +3428,7 @@
         <v>5549</v>
       </c>
       <c r="N19" s="7">
-        <v>5970139</v>
+        <v>5970140</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>219</v>
@@ -3530,7 +3530,7 @@
         <v>6496</v>
       </c>
       <c r="N21" s="7">
-        <v>6972688</v>
+        <v>6972689</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3565,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B149210-371D-43AC-A2F5-3B0452F79FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6065BDB-24BE-4619-A74F-2C0F2C38EC6D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4020,7 +4020,7 @@
         <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>1536</v>
@@ -4029,13 +4029,13 @@
         <v>1647541</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4050,13 @@
         <v>210820</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -4065,13 +4065,13 @@
         <v>200455</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -4080,13 +4080,13 @@
         <v>411275</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4154,13 @@
         <v>590114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>619</v>
@@ -4169,13 +4169,13 @@
         <v>662189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>1167</v>
@@ -4187,10 +4187,10 @@
         <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4205,13 @@
         <v>168452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -4220,13 +4220,13 @@
         <v>122822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4235,13 +4235,13 @@
         <v>291274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4330,7 @@
         <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>1583</v>
@@ -4339,13 +4339,13 @@
         <v>1666591</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4360,13 @@
         <v>167454</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4375,13 +4375,13 @@
         <v>143235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
@@ -4390,13 +4390,13 @@
         <v>310690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4464,13 @@
         <v>2711305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>2766</v>
@@ -4479,13 +4479,13 @@
         <v>2950790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>5364</v>
@@ -4494,13 +4494,13 @@
         <v>5662096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>676245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>567</v>
@@ -4530,13 +4530,13 @@
         <v>587922</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>1194</v>
@@ -4545,10 +4545,10 @@
         <v>1264167</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>329</v>

--- a/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE39A22-93B1-4D53-BB65-0FD32EC06297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC4EAE1-6A66-4A91-B612-C8C048E5E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E85F496-7EBC-44C0-B414-CF20EDD5F73F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50ABC2BB-15F2-460D-A58F-BA9A1257C87A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,904 +76,898 @@
     <t>89,34%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>80,04%</t>
@@ -982,31 +976,28 @@
     <t>78,63%</t>
   </si>
   <si>
-    <t>81,46%</t>
+    <t>81,36%</t>
   </si>
   <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>84,62%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>18,54%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>21,37%</t>
@@ -1015,19 +1006,16 @@
     <t>16,61%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>15,38%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC5AC-DDFA-4369-A384-E072FECB81F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BE2336-4551-478B-A33B-215FBB9545D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2216,10 +2204,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2222,13 @@
         <v>238994</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -2249,13 +2237,13 @@
         <v>198082</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>448</v>
@@ -2264,13 +2252,13 @@
         <v>437076</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2326,13 @@
         <v>2495953</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2683</v>
@@ -2353,13 +2341,13 @@
         <v>2756435</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>5130</v>
@@ -2368,10 +2356,10 @@
         <v>5252388</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -2410,7 +2398,7 @@
         <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1376</v>
@@ -2419,13 +2407,13 @@
         <v>1398445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2469,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80192039-20F1-4426-A539-5EE589F4AD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FEEDF-D408-4C93-B043-CE9984410033}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,13 +2614,13 @@
         <v>97885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -2641,13 +2629,13 @@
         <v>98837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -2656,13 +2644,13 @@
         <v>196722</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2665,13 @@
         <v>17880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -2692,13 +2680,13 @@
         <v>13068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -2707,13 +2695,13 @@
         <v>30948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2769,13 @@
         <v>510848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>497</v>
@@ -2796,13 +2784,13 @@
         <v>527732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>977</v>
@@ -2811,13 +2799,13 @@
         <v>1038580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2820,13 @@
         <v>76856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -2847,13 +2835,13 @@
         <v>57413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -2862,13 +2850,13 @@
         <v>134269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2924,13 @@
         <v>835360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>825</v>
@@ -2951,13 +2939,13 @@
         <v>904728</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>1592</v>
@@ -2966,13 +2954,13 @@
         <v>1740088</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2975,13 @@
         <v>179634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -3002,13 +2990,13 @@
         <v>126369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>280</v>
@@ -3017,13 +3005,13 @@
         <v>306003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3079,13 @@
         <v>632803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>608</v>
@@ -3106,13 +3094,13 @@
         <v>670885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>1179</v>
@@ -3121,13 +3109,13 @@
         <v>1303687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3130,13 @@
         <v>122711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -3157,13 +3145,13 @@
         <v>104131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>211</v>
@@ -3172,13 +3160,13 @@
         <v>226843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3234,13 @@
         <v>777383</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>873</v>
@@ -3261,13 +3249,13 @@
         <v>913679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>1612</v>
@@ -3276,13 +3264,13 @@
         <v>1691062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3285,13 @@
         <v>170356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3312,13 +3300,13 @@
         <v>134131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>298</v>
@@ -3327,7 +3315,7 @@
         <v>304487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>211</v>
@@ -3398,7 +3386,7 @@
         <v>2659</v>
       </c>
       <c r="D19" s="7">
-        <v>2854280</v>
+        <v>2854281</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>213</v>
@@ -3500,7 +3488,7 @@
         <v>3204</v>
       </c>
       <c r="D21" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3544,7 +3532,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6065BDB-24BE-4619-A74F-2C0F2C38EC6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0A543-31BB-473B-8E90-D8497D14D3C4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,13 +3677,13 @@
         <v>93897</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -3704,13 +3692,13 @@
         <v>82578</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>176</v>
@@ -3719,13 +3707,13 @@
         <v>176475</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>22649</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3755,13 +3743,13 @@
         <v>30782</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -3770,13 +3758,13 @@
         <v>53431</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3832,13 @@
         <v>450335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>460</v>
@@ -3859,13 +3847,13 @@
         <v>468852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>902</v>
@@ -3874,13 +3862,13 @@
         <v>919187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>106870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>91</v>
@@ -3910,13 +3898,13 @@
         <v>90627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3925,13 +3913,13 @@
         <v>197497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3987,13 @@
         <v>808804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>783</v>
@@ -4014,13 +4002,13 @@
         <v>838736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="M10" s="7">
         <v>1536</v>
@@ -4029,13 +4017,13 @@
         <v>1647541</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4038,13 @@
         <v>210820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -4065,13 +4053,13 @@
         <v>200455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -4080,13 +4068,13 @@
         <v>411275</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4142,13 @@
         <v>590114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>619</v>
@@ -4169,13 +4157,13 @@
         <v>662189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1167</v>
@@ -4184,13 +4172,13 @@
         <v>1252302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4193,13 @@
         <v>168452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -4220,13 +4208,13 @@
         <v>122822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>264</v>
@@ -4235,13 +4223,13 @@
         <v>291274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4297,13 @@
         <v>768156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>819</v>
@@ -4324,13 +4312,13 @@
         <v>898436</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>1583</v>
@@ -4339,13 +4327,13 @@
         <v>1666591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>167454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4375,13 +4363,13 @@
         <v>143235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
@@ -4390,13 +4378,13 @@
         <v>310690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4452,13 @@
         <v>2711305</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>2766</v>
@@ -4479,13 +4467,13 @@
         <v>2950790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>5364</v>
@@ -4494,13 +4482,13 @@
         <v>5662096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4503,13 @@
         <v>676245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>567</v>
@@ -4530,13 +4518,13 @@
         <v>587922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>1194</v>
@@ -4545,13 +4533,13 @@
         <v>1264167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4595,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC4EAE1-6A66-4A91-B612-C8C048E5E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E451979-7DAC-42AD-BFA8-29B0BC78BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50ABC2BB-15F2-460D-A58F-BA9A1257C87A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F836AC58-692B-4CD0-99D5-C7AA55E08975}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="271">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -67,805 +67,640 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>17,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
   </si>
   <si>
     <t>22,12%</t>
@@ -1427,8 +1262,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BE2336-4551-478B-A33B-215FBB9545D3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4512335-483B-439C-AB4A-AF9D12FA08CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1545,10 +1380,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>93</v>
+        <v>549</v>
       </c>
       <c r="D4" s="7">
-        <v>103062</v>
+        <v>560594</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1560,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>109</v>
+        <v>594</v>
       </c>
       <c r="I4" s="7">
-        <v>96418</v>
+        <v>591502</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1575,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>202</v>
+        <v>1143</v>
       </c>
       <c r="N4" s="7">
-        <v>199480</v>
+        <v>1152095</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1596,10 +1431,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>12296</v>
+        <v>132470</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1611,10 +1446,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
-        <v>16337</v>
+        <v>96849</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1626,10 +1461,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7">
-        <v>28633</v>
+        <v>229320</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1647,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>693064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1662,10 +1497,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1512,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1700,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="D7" s="7">
-        <v>457531</v>
+        <v>706003</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1715,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="I7" s="7">
-        <v>495084</v>
+        <v>759514</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1730,10 +1565,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>941</v>
+        <v>1375</v>
       </c>
       <c r="N7" s="7">
-        <v>952615</v>
+        <v>1465518</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1751,10 +1586,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>120175</v>
+        <v>254755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1766,10 +1601,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="I8" s="7">
-        <v>80512</v>
+        <v>207819</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1781,10 +1616,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>204</v>
+        <v>427</v>
       </c>
       <c r="N8" s="7">
-        <v>200687</v>
+        <v>462573</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1802,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>577706</v>
+        <v>960758</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1817,10 +1652,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1832,10 +1667,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1802</v>
       </c>
       <c r="N9" s="7">
-        <v>1153302</v>
+        <v>1928091</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1855,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>664</v>
+        <v>496</v>
       </c>
       <c r="D10" s="7">
-        <v>706003</v>
+        <v>527010</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1870,10 +1705,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>711</v>
+        <v>575</v>
       </c>
       <c r="I10" s="7">
-        <v>759514</v>
+        <v>565865</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1885,10 +1720,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1375</v>
+        <v>1071</v>
       </c>
       <c r="N10" s="7">
-        <v>1465518</v>
+        <v>1092874</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1906,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7">
-        <v>254755</v>
+        <v>151499</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1921,10 +1756,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>207819</v>
+        <v>117976</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1936,10 +1771,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>427</v>
+        <v>266</v>
       </c>
       <c r="N11" s="7">
-        <v>462573</v>
+        <v>269476</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1957,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>960758</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967333</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1802</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1928091</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>496</v>
+        <v>738</v>
       </c>
       <c r="D13" s="7">
-        <v>527010</v>
+        <v>702346</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2025,10 +1860,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>575</v>
+        <v>803</v>
       </c>
       <c r="I13" s="7">
-        <v>565865</v>
+        <v>839554</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2040,19 +1875,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1071</v>
+        <v>1541</v>
       </c>
       <c r="N13" s="7">
-        <v>1092874</v>
+        <v>1541901</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +1896,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>151499</v>
+        <v>238994</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>193</v>
+      </c>
+      <c r="I14" s="7">
+        <v>198082</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>121</v>
-      </c>
-      <c r="I14" s="7">
-        <v>117976</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>448</v>
+      </c>
+      <c r="N14" s="7">
+        <v>437076</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>266</v>
-      </c>
-      <c r="N14" s="7">
-        <v>269476</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1962,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037636</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1989</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1978977</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2159,55 +1994,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>738</v>
+        <v>2447</v>
       </c>
       <c r="D16" s="7">
-        <v>702346</v>
+        <v>2495953</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2683</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2756435</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>803</v>
-      </c>
-      <c r="I16" s="7">
-        <v>839554</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5130</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5252388</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1541</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1541901</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2051,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>255</v>
+        <v>764</v>
       </c>
       <c r="D17" s="7">
-        <v>238994</v>
+        <v>777718</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>612</v>
+      </c>
+      <c r="I17" s="7">
+        <v>620727</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>193</v>
-      </c>
-      <c r="I17" s="7">
-        <v>198082</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1376</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1398445</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>448</v>
-      </c>
-      <c r="N17" s="7">
-        <v>437076</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3211</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3273671</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2117,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1037636</v>
+        <v>3377162</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1989</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1978977</v>
+        <v>6650833</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2313,171 +2148,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2447</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2495953</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2683</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2756435</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5130</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5252388</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>764</v>
-      </c>
-      <c r="D20" s="7">
-        <v>777718</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>612</v>
-      </c>
-      <c r="I20" s="7">
-        <v>620727</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1376</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1398445</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3211</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3273671</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377162</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650833</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2490,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FEEDF-D408-4C93-B043-CE9984410033}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151EC0E-66B4-4973-B6F1-4175DBEF57E1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2507,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,49 +2287,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>102</v>
+        <v>582</v>
       </c>
       <c r="D4" s="7">
-        <v>97885</v>
+        <v>608734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>584</v>
       </c>
       <c r="I4" s="7">
-        <v>98837</v>
+        <v>626569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>189</v>
+        <v>1166</v>
       </c>
       <c r="N4" s="7">
-        <v>196722</v>
+        <v>1235302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2338,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7">
-        <v>17880</v>
+        <v>94735</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I5" s="7">
-        <v>13068</v>
+        <v>70481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="N5" s="7">
-        <v>30948</v>
+        <v>165217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2725,10 +2404,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2740,10 +2419,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2763,49 +2442,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>480</v>
+        <v>767</v>
       </c>
       <c r="D7" s="7">
-        <v>510848</v>
+        <v>835360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>497</v>
+        <v>825</v>
       </c>
       <c r="I7" s="7">
-        <v>527732</v>
+        <v>904728</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>977</v>
+        <v>1592</v>
       </c>
       <c r="N7" s="7">
-        <v>1038580</v>
+        <v>1740088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,49 +2493,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D8" s="7">
-        <v>76856</v>
+        <v>179634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="I8" s="7">
-        <v>57413</v>
+        <v>126369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="N8" s="7">
-        <v>134269</v>
+        <v>306003</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1014994</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2880,10 +2559,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031097</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2895,10 +2574,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046091</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2918,49 +2597,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>767</v>
+        <v>571</v>
       </c>
       <c r="D10" s="7">
-        <v>835360</v>
+        <v>632803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
-        <v>825</v>
+        <v>608</v>
       </c>
       <c r="I10" s="7">
-        <v>904728</v>
+        <v>670885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>1592</v>
+        <v>1179</v>
       </c>
       <c r="N10" s="7">
-        <v>1740088</v>
+        <v>1303687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>179634</v>
+        <v>122711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>126369</v>
+        <v>104131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="N11" s="7">
-        <v>306003</v>
+        <v>226843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1014994</v>
+        <v>755514</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1031097</v>
+        <v>775016</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>2046091</v>
+        <v>1530530</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3073,49 +2752,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>571</v>
+        <v>739</v>
       </c>
       <c r="D13" s="7">
-        <v>632803</v>
+        <v>777383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>608</v>
+        <v>873</v>
       </c>
       <c r="I13" s="7">
-        <v>670885</v>
+        <v>913679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>1179</v>
+        <v>1612</v>
       </c>
       <c r="N13" s="7">
-        <v>1303687</v>
+        <v>1691062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>122711</v>
+        <v>170356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I14" s="7">
-        <v>104131</v>
+        <v>134131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="N14" s="7">
-        <v>226843</v>
+        <v>304487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>755514</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>775016</v>
+        <v>1047810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1390</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1530530</v>
+        <v>1995549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3222,55 +2901,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>739</v>
+        <v>2659</v>
       </c>
       <c r="D16" s="7">
-        <v>777383</v>
+        <v>2854281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>873</v>
+        <v>2890</v>
       </c>
       <c r="I16" s="7">
-        <v>913679</v>
+        <v>3115859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>1612</v>
+        <v>5549</v>
       </c>
       <c r="N16" s="7">
-        <v>1691062</v>
+        <v>5970140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2958,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>171</v>
+        <v>545</v>
       </c>
       <c r="D17" s="7">
-        <v>170356</v>
+        <v>567436</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>402</v>
       </c>
       <c r="I17" s="7">
-        <v>134131</v>
+        <v>435113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>298</v>
+        <v>947</v>
       </c>
       <c r="N17" s="7">
-        <v>304487</v>
+        <v>1002549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3421717</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3345,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3292</v>
       </c>
       <c r="I18" s="7">
-        <v>1047810</v>
+        <v>3550972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6496</v>
       </c>
       <c r="N18" s="7">
-        <v>1995549</v>
+        <v>6972689</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3376,171 +3055,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2659</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2854281</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2890</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3115859</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5549</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5970140</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>545</v>
-      </c>
-      <c r="D20" s="7">
-        <v>567436</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>402</v>
-      </c>
-      <c r="I20" s="7">
-        <v>435113</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>947</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1002549</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421717</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3292</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3550972</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6496</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6972689</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3553,8 +3076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0A543-31BB-473B-8E90-D8497D14D3C4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF730E02-B655-48EA-8E6D-EAF4166EAC5C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3570,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,49 +3194,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>533</v>
       </c>
       <c r="D4" s="7">
-        <v>93897</v>
+        <v>544232</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
-        <v>85</v>
+        <v>545</v>
       </c>
       <c r="I4" s="7">
-        <v>82578</v>
+        <v>551430</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>176</v>
+        <v>1078</v>
       </c>
       <c r="N4" s="7">
-        <v>176475</v>
+        <v>1095662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +3245,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>22649</v>
+        <v>129519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="7">
+        <v>121</v>
+      </c>
+      <c r="I5" s="7">
+        <v>121409</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="7">
         <v>239</v>
       </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>30782</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="7">
-        <v>52</v>
-      </c>
       <c r="N5" s="7">
-        <v>53431</v>
+        <v>250928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3296,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673751</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3788,10 +3311,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3803,10 +3326,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1346590</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3826,49 +3349,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>442</v>
+        <v>753</v>
       </c>
       <c r="D7" s="7">
-        <v>450335</v>
+        <v>808804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>460</v>
+        <v>783</v>
       </c>
       <c r="I7" s="7">
-        <v>468852</v>
+        <v>838736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>902</v>
+        <v>1536</v>
       </c>
       <c r="N7" s="7">
-        <v>919187</v>
+        <v>1647541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,49 +3400,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="D8" s="7">
-        <v>106870</v>
+        <v>210820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="I8" s="7">
-        <v>90627</v>
+        <v>200455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>187</v>
+        <v>387</v>
       </c>
       <c r="N8" s="7">
-        <v>197497</v>
+        <v>411275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3451,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>949</v>
       </c>
       <c r="D9" s="7">
-        <v>557205</v>
+        <v>1019624</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3943,10 +3466,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1039191</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3958,10 +3481,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1923</v>
       </c>
       <c r="N9" s="7">
-        <v>1116684</v>
+        <v>2058816</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3981,49 +3504,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>753</v>
+        <v>548</v>
       </c>
       <c r="D10" s="7">
-        <v>808804</v>
+        <v>590114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>783</v>
+        <v>619</v>
       </c>
       <c r="I10" s="7">
-        <v>838736</v>
+        <v>662189</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>1536</v>
+        <v>1167</v>
       </c>
       <c r="N10" s="7">
-        <v>1647541</v>
+        <v>1252303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3555,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7">
-        <v>210820</v>
+        <v>168452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="I11" s="7">
-        <v>200455</v>
+        <v>122822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="N11" s="7">
-        <v>411275</v>
+        <v>291274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>949</v>
+        <v>695</v>
       </c>
       <c r="D12" s="7">
-        <v>1019624</v>
+        <v>758566</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3621,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1039191</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1923</v>
+        <v>1431</v>
       </c>
       <c r="N12" s="7">
-        <v>2058816</v>
+        <v>1543577</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4136,49 +3659,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>548</v>
+        <v>764</v>
       </c>
       <c r="D13" s="7">
-        <v>590114</v>
+        <v>768156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>619</v>
+        <v>819</v>
       </c>
       <c r="I13" s="7">
-        <v>662189</v>
+        <v>898436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>1167</v>
+        <v>1583</v>
       </c>
       <c r="N13" s="7">
-        <v>1252302</v>
+        <v>1666591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3710,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D14" s="7">
-        <v>168452</v>
+        <v>167454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>122822</v>
+        <v>143235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="N14" s="7">
-        <v>291274</v>
+        <v>310690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>930</v>
       </c>
       <c r="D15" s="7">
-        <v>758566</v>
+        <v>935610</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3776,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1041671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3791,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1431</v>
+        <v>1887</v>
       </c>
       <c r="N15" s="7">
-        <v>1543576</v>
+        <v>1977281</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4285,55 +3808,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>764</v>
+        <v>2598</v>
       </c>
       <c r="D16" s="7">
-        <v>768156</v>
+        <v>2711305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>819</v>
+        <v>2766</v>
       </c>
       <c r="I16" s="7">
-        <v>898436</v>
+        <v>2950790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
-        <v>1583</v>
+        <v>5364</v>
       </c>
       <c r="N16" s="7">
-        <v>1666591</v>
+        <v>5662096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>627</v>
+      </c>
+      <c r="D17" s="7">
+        <v>676245</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="7">
+        <v>567</v>
+      </c>
+      <c r="I17" s="7">
+        <v>587922</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="7">
-        <v>167454</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H17" s="7">
-        <v>138</v>
-      </c>
-      <c r="I17" s="7">
-        <v>143235</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="M17" s="7">
-        <v>304</v>
+        <v>1194</v>
       </c>
       <c r="N17" s="7">
-        <v>310690</v>
+        <v>1264167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>930</v>
+        <v>3225</v>
       </c>
       <c r="D18" s="7">
-        <v>935610</v>
+        <v>3387550</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>957</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1041671</v>
+        <v>3538712</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1887</v>
+        <v>6558</v>
       </c>
       <c r="N18" s="7">
-        <v>1977281</v>
+        <v>6926263</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4439,171 +3962,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2598</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2711305</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2766</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2950790</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5364</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5662096</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>627</v>
-      </c>
-      <c r="D20" s="7">
-        <v>676245</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="7">
-        <v>567</v>
-      </c>
-      <c r="I20" s="7">
-        <v>587922</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1194</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1264167</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3225</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3387550</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3538712</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6558</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6926263</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
